--- a/DS.xlsx
+++ b/DS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HOC_TAP\NAM4\HTTTDL\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F8A2A-3AF8-4005-803E-466A371D7D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0938F-1525-4894-88F4-8ABE77B83D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1740" windowWidth="2388" windowHeight="564" xr2:uid="{D5B5FDE4-FB02-4BC8-97D1-F3205623EB3C}"/>
+    <workbookView xWindow="2784" yWindow="2784" windowWidth="2388" windowHeight="564" xr2:uid="{D5B5FDE4-FB02-4BC8-97D1-F3205623EB3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="177">
   <si>
     <t>Bến xe Buýt</t>
   </si>
@@ -228,18 +228,6 @@
     <t>XPXR+WR Ninh Kiều, Cần Thơ, Việt Nam</t>
   </si>
   <si>
-    <t>Kho Hàng Trọng Tấn - Cần Thơ</t>
-  </si>
-  <si>
-    <t>QL1, Hưng Phú, Châu Thành, Cần Thơ, Việt Nam</t>
-  </si>
-  <si>
-    <t>http://trongtanvn.com/chuyen-hang-ho-chi-minh-di-tien-giang/</t>
-  </si>
-  <si>
-    <t>2Q6J+HC Châu Thành, Hậu Giang, Việt Nam</t>
-  </si>
-  <si>
     <t>cách cầu hưng lợi 200m, số 39, Võ Nguyên Giáp, Hưng Phú, Ninh Kiều, Cần Thơ, Việt Nam</t>
   </si>
   <si>
@@ -507,9 +495,6 @@
     <t xml:space="preserve">4 đến 23 </t>
   </si>
   <si>
-    <t>Cty Cổ Phần Vận Tải Sài Gòn</t>
-  </si>
-  <si>
     <t>3Q4H+93 Ninh Kiều, Cần Thơ, Việt Nam</t>
   </si>
   <si>
@@ -568,6 +553,9 @@
   </si>
   <si>
     <t>Bến xe Khách Trung Tâm Thành Phố Cần Thơ</t>
+  </si>
+  <si>
+    <t>Ninh Kiều, Cần Thơ, Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -968,16 +956,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3409258A-0CB3-49C3-B18A-04C853FA3DF7}">
-  <dimension ref="A2:H53"/>
+  <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.21875" style="1" customWidth="1"/>
@@ -1018,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -1033,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -1171,7 +1159,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1245,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -1254,7 +1242,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1370,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>59</v>
@@ -1379,7 +1367,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1421,76 +1409,79 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1">
+        <v>819239339</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1">
-        <v>908933930</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>932740033</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" s="1">
-        <v>819239339</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1">
-        <v>932740033</v>
+        <v>19006097</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>77</v>
@@ -1499,16 +1490,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>19006097</v>
-      </c>
-      <c r="E26" s="1" t="s">
+        <v>2923763300</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>77</v>
@@ -1516,27 +1501,33 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1">
+        <v>84896727099</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2923763300</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>84</v>
@@ -1545,16 +1536,10 @@
         <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>84896727099</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>2923732585</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>84</v>
@@ -1562,27 +1547,30 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1">
+        <v>84907487172</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2923732585</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>91</v>
@@ -1591,10 +1579,13 @@
         <v>92</v>
       </c>
       <c r="D30" s="1">
-        <v>84907487172</v>
+        <v>84939364345</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>94</v>
@@ -1605,294 +1596,291 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1">
+        <v>84907487172</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1">
-        <v>84939364345</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1">
         <v>84907487172</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1">
-        <v>84907487172</v>
+        <v>842923768739</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
-        <v>842923768739</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>8419007076</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1">
-        <v>8419007076</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>84918368630</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="1">
+        <v>84984971568</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D36" s="1">
-        <v>84918368630</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="1">
-        <v>84984971568</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1">
+        <v>84901868876</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1">
         <v>84901868876</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1">
+        <v>84842855575</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="1">
-        <v>84901868876</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>119</v>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D41" s="1">
-        <v>84842855575</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="1">
+        <v>84911838409</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1">
+        <v>84945720640</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" s="1">
-        <v>84911838409</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>134</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>135</v>
@@ -1901,9 +1889,9 @@
         <v>136</v>
       </c>
       <c r="D44" s="1">
-        <v>84945720640</v>
-      </c>
-      <c r="F44" s="1" t="s">
+        <v>84984971568</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -1915,7 +1903,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>139</v>
@@ -1923,9 +1911,6 @@
       <c r="C45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="1">
-        <v>84984971568</v>
-      </c>
       <c r="E45" s="1" t="s">
         <v>141</v>
       </c>
@@ -1938,182 +1923,162 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="1">
+        <v>84919473665</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>148</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="1">
-        <v>84919473665</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>842923779977</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="1">
+        <v>842923761311</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="1">
-        <v>842923779977</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D51" s="1">
-        <v>842923761311</v>
+        <v>84932740033</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>84932740033</v>
+        <v>842923687007</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="1">
-        <v>842923687007</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E50" r:id="rId1" xr:uid="{92467FAB-EF9B-48F1-A54F-F4B36363C3CB}"/>
+    <hyperlink ref="E49" r:id="rId1" xr:uid="{92467FAB-EF9B-48F1-A54F-F4B36363C3CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
